--- a/biology/Médecine/Bellevue_Hospital/Bellevue_Hospital.xlsx
+++ b/biology/Médecine/Bellevue_Hospital/Bellevue_Hospital.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hôpital Bellevue (officiellement NYC Health + Hospitals/Bellevue et anciennement connu sous le nom de Bellevue Hospital Center) est un hôpital de la ville de New York et le plus ancien hôpital public des États-Unis. C'est l'un des plus grands hôpitaux des Etats-Unis en nombre de lits. Il est situé au 462 First Avenue dans le quartier de Kips Bay à Manhattan, à New York. Bellevue abrite également la caserne N°8 des pompiers et du Service d'Aide Médicale d'Urgence de la Ville de New York, anciennement caserne N°13.
@@ -516,13 +528,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Création
-Bellevue tire ses origines du premier hospice permanent de la ville, un bâtiment en briques de deux étages achevé en 1736 sur le terrain de la commune, aujourd'hui devenu le parc de l'hôtel de ville.
+          <t>Création</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bellevue tire ses origines du premier hospice permanent de la ville, un bâtiment en briques de deux étages achevé en 1736 sur le terrain de la commune, aujourd'hui devenu le parc de l'hôtel de ville.
 En 1798, la ville acheta la ferme Belle Vue, une propriété près de l'East River à plusieurs kilomètres au nord de la ville colonisée, qui avait été utilisée pour mettre en quarantaine les malades lors d'une série d'épidémies de fièvre jaune. L'hôpital fut officiellement nommé Hôpital Bellevue en 1824.
 En 1787, le Columbia University College of Physicians and Surgeons avait affecté des professeurs et des étudiants en médecine à Bellevue. Le corps professoral et les étudiants de Columbia resteraient à Bellevue pendant les 181 années suivantes, jusqu'à la restructuration des affiliations académiques de l'hôpital Bellevue en 1968. Le corps professoral de l'Université de New York a commencé à dispenser un enseignement clinique à l'hôpital en 1819. En 1849, un amphithéâtre pour l'enseignement clinique et la chirurgie a ouvert. En 1861, le Bellevue Hospital Medical College, la première faculté de médecine de New York avec des liens avec un hôpital, a été fondé. En 1873, la première école d'infirmières du pays basée sur les principes de Florence Nightingale a ouvert ses portes à Bellevue, suivie de la première clinique pour enfants du pays en 1874 et du premier pavillon d'urgence du pays en 1876 ; un pavillon pour les aliénés, approche considérée à l'époque comme révolutionnaire, est érigé dans l'enceinte de l'hôpital en 1879. C'est pourquoi le nom Bellevue est parfois utilisé comme métonymie pour les hôpitaux psychiatriques. Mark Harris à New York l'appelait "l'hôtel Chelsea des fous".
 Bellevue a lancé un programme de formation en résidence en 1883 qui est toujours le modèle pour la formation chirurgicale dans le monde entier. Le laboratoire Carnegie, le premier laboratoire de pathologie et de bactériologie du pays, y a été fondé un an plus tard, suivi de la première école d'infirmières pour hommes du pays en 1888. En 1892, Bellevue a créé une unité dédiée aux alcooliques.
-Réorganisation de la ville
-En 1902, l'organisation administrative Bellevue and Allied Hospitals a été fondée par la ville, sous la direction de John W. Brannan. B&amp;AH incluait également l'hôpital Gouverneur, l'hôpital Harlem et l'hôpital Fordham. B&amp;AH a ouvert ses portes aux femmes médecins et aux médecins noirs. En pleine épidémie de tuberculose, un an plus tard, le Service de Pneumologie de l'hôpital (Bellevue Chest Service) est fondé.
 </t>
         </is>
       </c>
@@ -548,10 +563,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Réorganisation de la ville</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1902, l'organisation administrative Bellevue and Allied Hospitals a été fondée par la ville, sous la direction de John W. Brannan. B&amp;AH incluait également l'hôpital Gouverneur, l'hôpital Harlem et l'hôpital Fordham. B&amp;AH a ouvert ses portes aux femmes médecins et aux médecins noirs. En pleine épidémie de tuberculose, un an plus tard, le Service de Pneumologie de l'hôpital (Bellevue Chest Service) est fondé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bellevue_Hospital</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bellevue_Hospital</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Jalons historiques au Bellevue Hospital</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'hôpital Bellevue a joué un rôle pionnier dans un grand nombre de domaines médicaux :
 31 mars 1736 : fondation de l'hôpital.
@@ -579,31 +633,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Bellevue_Hospital</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bellevue_Hospital</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Personnalités mortes au Bellevue Hospital</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1942 : Jessie Tarbox Beals</t>
         </is>
